--- a/실무_엑셀_예제_파일/Chapter02/02-007.xlsx
+++ b/실무_엑셀_예제_파일/Chapter02/02-007.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F237E-5116-417B-B78D-4D7AB3DD43BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C72D47-3A1E-48BD-973C-93C57CB3DE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{6B7A74D5-83B7-47E0-B5F8-A92BE3CAD762}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6B7A74D5-83B7-47E0-B5F8-A92BE3CAD762}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$20:$I$25</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>강남점</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +96,54 @@
   <si>
     <t>우선순위</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+  </si>
+  <si>
+    <t>면적(평)</t>
+  </si>
+  <si>
+    <t>임대료</t>
+  </si>
+  <si>
+    <t>평당임대료</t>
+  </si>
+  <si>
+    <t>유동인구수</t>
+  </si>
+  <si>
+    <t>주변상권</t>
+  </si>
+  <si>
+    <t>층수</t>
+  </si>
+  <si>
+    <t>우선순위</t>
+  </si>
+  <si>
+    <t>강남점</t>
+  </si>
+  <si>
+    <t>번화가</t>
+  </si>
+  <si>
+    <t>서초점</t>
+  </si>
+  <si>
+    <t>사무실밀집</t>
+  </si>
+  <si>
+    <t>영등포점</t>
+  </si>
+  <si>
+    <t>쇼핑몰</t>
+  </si>
+  <si>
+    <t>용산점</t>
+  </si>
+  <si>
+    <t>신촌점</t>
   </si>
 </sst>
 </file>
@@ -395,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,7 +485,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,20 +500,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,19 +832,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3CE9AA-E86C-4D87-B043-3CDD5A612079}">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.08203125" customWidth="1"/>
     <col min="3" max="7" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="25" t="s">
         <v>15</v>
       </c>
@@ -810,7 +856,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
@@ -830,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
@@ -850,7 +896,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
@@ -870,7 +916,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
@@ -895,7 +941,7 @@
         <v>127368.42105263157</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
@@ -915,7 +961,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
@@ -935,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="17" t="s">
         <v>8</v>
       </c>
@@ -955,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
@@ -975,9 +1021,182 @@
         <v>5</v>
       </c>
     </row>
+    <row r="17" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="18" spans="2:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="26">
+        <v>320</v>
+      </c>
+      <c r="D21" s="26">
+        <v>27500000</v>
+      </c>
+      <c r="E21" s="26">
+        <v>85937.5</v>
+      </c>
+      <c r="F21" s="26">
+        <v>55000</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="26">
+        <v>4</v>
+      </c>
+      <c r="I21" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="26">
+        <v>175</v>
+      </c>
+      <c r="D22" s="26">
+        <v>22100000</v>
+      </c>
+      <c r="E22" s="26">
+        <v>126285.71428571429</v>
+      </c>
+      <c r="F22" s="26">
+        <v>42000</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="26">
+        <v>3</v>
+      </c>
+      <c r="I22" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="26">
+        <v>190</v>
+      </c>
+      <c r="D23" s="26">
+        <v>24200000</v>
+      </c>
+      <c r="E23" s="26">
+        <v>127368.42105263157</v>
+      </c>
+      <c r="F23" s="26">
+        <v>62500</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="26">
+        <v>250</v>
+      </c>
+      <c r="D24" s="26">
+        <v>35300000</v>
+      </c>
+      <c r="E24" s="26">
+        <v>141200</v>
+      </c>
+      <c r="F24" s="26">
+        <v>75000</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="26">
+        <v>210</v>
+      </c>
+      <c r="D25" s="26">
+        <v>33000000</v>
+      </c>
+      <c r="E25" s="26">
+        <v>157142.85714285713</v>
+      </c>
+      <c r="F25" s="26">
+        <v>68000</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="26">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <autoFilter ref="B20:I25" xr:uid="{2F3CE9AA-E86C-4D87-B043-3CDD5A612079}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:I25">
+      <sortCondition ref="E20:E25"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
